--- a/网络安全技术/原题库-完整版.xlsx
+++ b/网络安全技术/原题库-完整版.xlsx
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['A.将所有密钥公开','B.两个密钥相同','C.将公开密钥公开，私有密钥保密','D.将私有密钥公开，公开密钥保密']</t>
+          <t>['将所有密钥公开','两个密钥相同','将公开密钥公开，私有密钥保密','将私有密钥公开，公开密钥保密']</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['A.完全控制','B.读取及执行','C.只读','D.更改']</t>
+          <t>['完全控制','读取及执行','只读','更改']</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['A.信息在理解上的偏差','B.信息（信箱）接收信息出现偏差','C.信息提供的信息不完全、不准确','D.信息在编码、译码和传递过程中受到干扰']</t>
+          <t>['信息在理解上的偏差','信息（信箱）接收信息出现偏差','信息提供的信息不完全、不准确','信息在编码、译码和传递过程中受到干扰']</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['A.数字签名机制','B.访问控制机制','C.审计机制','D.通信业务填充机制']</t>
+          <t>['数字签名机制','访问控制机制','审计机制','通信业务填充机制']</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['A.网络权限控制','B.属性安全控制','C.目录级安全控制','D.入网访问控制']</t>
+          <t>['网络权限控制','属性安全控制','目录级安全控制','入网访问控制']</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['A.II、III','B.I、V','C.IV、V','D.I、II']</t>
+          <t>['II、III','I、V','IV、V','I、II']</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['A.嗅探程序','B.拒绝服务攻击','C.缓冲区溢出攻击','D.木马程序']</t>
+          <t>['嗅探程序','拒绝服务攻击','缓冲区溢出攻击','木马程序']</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['A.完善服务器系统安全性能','B.实施存取控制','C.安全管理检测','D.动态站点监控']</t>
+          <t>['完善服务器系统安全性能','实施存取控制','安全管理检测','动态站点监控']</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['A.安全通道协议','B.加密认证协议','C.安全套接层协议','D.授权认证协议']</t>
+          <t>['安全通道协议','加密认证协议','安全套接层协议','授权认证协议']</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['A.网络层','B.数据链路层','C.以上都不是','D.传输层']</t>
+          <t>['网络层','数据链路层','以上都不是','传输层']</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['A.安全套接层','B.加密认证','C.证书授权','D.虚拟专用网']</t>
+          <t>['安全套接层','加密认证','证书授权','虚拟专用网']</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['A.数字签名能够解决篡改、伪造等安全性问题','B.数字签名能够解决数据的加密传输，即安全传输问题','C.数字签名是在所传输的数据后附加上一段和传输数据毫无关系的数字信息。','D.数字签名一般采用对称加密机制']</t>
+          <t>['数字签名能够解决篡改、伪造等安全性问题','数字签名能够解决数据的加密传输，即安全传输问题','数字签名是在所传输的数据后附加上一段和传输数据毫无关系的数字信息。','数字签名一般采用对称加密机制']</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['A.国际','B.网络','C.非盈利','D.商业']</t>
+          <t>['国际','网络','非盈利','商业']</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['A.证书存储库CR','B.注册授权RA','C.SSL','D.证书授权CA']</t>
+          <t>['证书存储库CR','注册授权RA','SSL','证书授权CA']</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['A.密钥','B.证书','C.证书撤消','D.ID和口令']</t>
+          <t>['密钥','证书','证书撤消','ID和口令']</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['A.第四层隧道','B.第一层隧道','C.第二层隧道','D.第三层隧道']</t>
+          <t>['第四层隧道','第一层隧道','第二层隧道','第三层隧道']</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['A.物理层和数据层','B.传输层和应用层','C.物理层和网络层','D.网络层和系统层']</t>
+          <t>['物理层和数据层','传输层和应用层','物理层和网络层','网络层和系统层']</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['A.4,6','B.3,7','C.4,7','D.4,5']</t>
+          <t>['4,6','3,7','4,7','4,5']</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['A.setenforce1','B.C.gentenforce1','C.setenforce0','D.gentenforce0']</t>
+          <t>['setenforce1','C.gentenforce1','setenforce0','gentenforce0']</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>['A.一台独立的主机','B.网桥','C.二层交换机','D.路由器']</t>
+          <t>['一台独立的主机','网桥','二层交换机','路由器']</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['A.IPSec','B.L2TP','C.PPTP','D.TCP/IP']</t>
+          <t>['IPSec','L2TP','PPTP','TCP/IP']</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>['A.NTRU','B.Elgamal','C.RSA','D.ECC']</t>
+          <t>['NTRU','Elgamal','RSA','ECC']</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['A.比非对称密码算法更安全','B.还能同时用于身份认证','C.比非对称密码算法效率更高','D.比非对称密码算法密钥长度更长']</t>
+          <t>['比非对称密码算法更安全','还能同时用于身份认证','比非对称密码算法效率更高','比非对称密码算法密钥长度更长']</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>['A.黑客攻击','B.外国政府','C.内部员工的恶意攻击','D.竞争对手']</t>
+          <t>['黑客攻击','外国政府','内部员工的恶意攻击','竞争对手']</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>['A.II、IV','B.II、III','C.I、II','D.I、III']</t>
+          <t>['II、IV','II、III','I、II','I、III']</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>['A.可给予哪些主体访问权利','B.用户权限','C.系统是否遭受入侵','D.可被用户访问的资源']</t>
+          <t>['可给予哪些主体访问权利','用户权限','系统是否遭受入侵','可被用户访问的资源']</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>['A.防火墙能阻止来自内部的威胁','B.防火墙能控制进出内网的信息流向和信息包','C.防火墙能提供VPN功能','D.防火墙能隐藏内部IP地址']</t>
+          <t>['防火墙能阻止来自内部的威胁','防火墙能控制进出内网的信息流向和信息包','防火墙能提供VPN功能','防火墙能隐藏内部IP地址']</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>['A.防火墙不能防止内部攻击','B.防火墙是IDS的有利补充','C.防火墙既可以防止外部用户攻击，也可以防止内部用户攻击','D.如果一个公司信息安全制度不明确，拥有再好的防火墙也没有用']</t>
+          <t>['防火墙不能防止内部攻击','防火墙是IDS的有利补充','防火墙既可以防止外部用户攻击，也可以防止内部用户攻击','如果一个公司信息安全制度不明确，拥有再好的防火墙也没有用']</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>['A.防火墙无法检测内部人员的恶意操作或误操作','B.IDS属于直路设备，无法做深度检测','C.IDS不能与防火墙进行联动','D.防火墙属于旁路设备，用于进行细粒度的检测']</t>
+          <t>['防火墙无法检测内部人员的恶意操作或误操作','IDS属于直路设备，无法做深度检测','IDS不能与防火墙进行联动','防火墙属于旁路设备，用于进行细粒度的检测']</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>['A.干扰计算机的正常运行','B.使计算机腐烂','C.损坏计算机的外观','D.影响操作者的健康']</t>
+          <t>['干扰计算机的正常运行','使计算机腐烂','损坏计算机的外观','影响操作者的健康']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>['A.欺骗性','B.持久性','C.传染性','D.潜伏性']</t>
+          <t>['欺骗性','持久性','传染性','潜伏性']</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>['A.设计不完善的计算机程序','B.已被破坏的计算机程序','C.以危害系统为目的的特殊的计算机程序','D.编制有错误的计算机程序']</t>
+          <t>['设计不完善的计算机程序','已被破坏的计算机程序','以危害系统为目的的特殊的计算机程序','编制有错误的计算机程序']</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>['A.ARP','B.RARP','C.UDP','D.TCP']</t>
+          <t>['ARP','RARP','UDP','TCP']</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>['A.单向函数密码技术','B.公钥加密技术','C.对称加密技术','D.分组密码技术']</t>
+          <t>['单向函数密码技术','公钥加密技术','对称加密技术','分组密码技术']</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>['A.外联网VPN','B.无线VPN','C.内联网VPN','D.远程接入VPN']</t>
+          <t>['外联网VPN','无线VPN','内联网VPN','远程接入VPN']</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>['A.数据中途被攻击者窃听获取','B.抵赖做过信息的递交行为','C.数据在途中被攻击者篡改或破坏','D.假冒源地址或用户的地址欺骗攻击']</t>
+          <t>['数据中途被攻击者窃听获取','抵赖做过信息的递交行为','数据在途中被攻击者篡改或破坏','假冒源地址或用户的地址欺骗攻击']</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>['A.身份认证、数据加密','B.隧道协议、身份认证','C.隧道协议、数据加密','D.隧道协议、身份认证和数据加密']</t>
+          <t>['身份认证、数据加密','隧道协议、身份认证','隧道协议、数据加密','隧道协议、身份认证和数据加密']</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['A.认证服务','B.访问控制服务','C.数据完整性服务','D.数据保密性服务']</t>
+          <t>['认证服务','访问控制服务','数据完整性服务','数据保密性服务']</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['A.蠕虫','B.恶意软件','C.病毒','D.木马']</t>
+          <t>['蠕虫','恶意软件','病毒','木马']</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['A.用户安全性策略','B.应用程序开发者的安全性策略','C.数据库管理者安全性策略','D.系统安全性策略']</t>
+          <t>['用户安全性策略','应用程序开发者的安全性策略','数据库管理者安全性策略','系统安全性策略']</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>['A.身份鉴别一般不用提供双向的认证','B.数字签名机制是实现身份鉴别的重要机制','C.身份鉴别是授权控制的基础','D.目前一般采用基于对称密钥加密或公开密钥加密的方法']</t>
+          <t>['身份鉴别一般不用提供双向的认证','数字签名机制是实现身份鉴别的重要机制','身份鉴别是授权控制的基础','目前一般采用基于对称密钥加密或公开密钥加密的方法']</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>['A.用户名和口令是不加密传输的，其它数据则以加密传输的','B.用户名和口令是加密传输的，而其它数据则以文明方式传输','C.包括用户名和口令在内，所有传输的数据都会被自动加密','D.包括用户名和口令在内，所有传输的数据都不会被自动加密']</t>
+          <t>['用户名和口令是不加密传输的，其它数据则以加密传输的','用户名和口令是加密传输的，而其它数据则以文明方式传输','包括用户名和口令在内，所有传输的数据都会被自动加密','包括用户名和口令在内，所有传输的数据都不会被自动加密']</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['A.IPSec','B.所有选项皆不是','C.GRE','D.PPTP']</t>
+          <t>['IPSec','所有选项皆不是','GRE','PPTP']</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>['A.IP地址与MAc地址的对应关系','B.CPU类型','C.域名与MAC地址的对应关系','D.域名与IP地址的对应关系']</t>
+          <t>['IP地址与MAc地址的对应关系','CPU类型','域名与MAC地址的对应关系','域名与IP地址的对应关系']</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['A.加密机制','B.访问控制机制','C.数据完整性机制','D.数字签名机制']</t>
+          <t>['加密机制','访问控制机制','数据完整性机制','数字签名机制']</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>['A.防止窃听者攻击','B.防止发送方的抵赖和接收方伪造','C.防止窃听','D.防止接收方的抵赖和发送方伪造']</t>
+          <t>['防止窃听者攻击','防止发送方的抵赖和接收方伪造','防止窃听','防止接收方的抵赖和发送方伪造']</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>['A.信息的处理、传输','B.其它3选项都是','C.信息载体','D.信息的存储、访问']</t>
+          <t>['信息的处理、传输','其它3选项都是','信息载体','信息的存储、访问']</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>['A.用户的方便性','B.其它3选项都是','C.管理的复杂性','D.对现有系统的影响及对不同平台的支持']</t>
+          <t>['用户的方便性','其它3选项都是','管理的复杂性','对现有系统的影响及对不同平台的支持']</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>['A.错','B.对']</t>
+          <t>['错','对']</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>['A.不作任何限制','B.严格限制数量','C.分类组织成组','D.按访问时间排序，删除长期没有访问的用户']</t>
+          <t>['不作任何限制','严格限制数量','分类组织成组','按访问时间排序，删除长期没有访问的用户']</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>['A.重要的文件要及时、定期备份，使备份能反映出系统的最新状态','B.定期用抗病毒软件对系统进行查毒、杀毒','C.外来的文件要经过病毒检测才能使用，不要使用盗版软件','D.不与外界进行任何交流，所有软件都自行开发']</t>
+          <t>['重要的文件要及时、定期备份，使备份能反映出系统的最新状态','定期用抗病毒软件对系统进行查毒、杀毒','外来的文件要经过病毒检测才能使用，不要使用盗版软件','不与外界进行任何交流，所有软件都自行开发']</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>['A.AH只能验证数据报文不能对其进行加密','B.ESP可以支持NAT穿越','C.AH协议使用3DES算法进行数据验证','D.传输模式下，ESP不对IP数据包头进行验证']</t>
+          <t>['AH只能验证数据报文不能对其进行加密','ESP可以支持NAT穿越','AH协议使用3DES算法进行数据验证','传输模式下，ESP不对IP数据包头进行验证']</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>['A.PGP可选用MD5和SHA两种Hash算法','B.PGP不可使用IDEA加密算法','C.PGP采用了ZIP数据压缩算法','D.PGP可用于电子邮件，也可以用于文件存储']</t>
+          <t>['PGP可选用MD5和SHA两种Hash算法','PGP不可使用IDEA加密算法','PGP采用了ZIP数据压缩算法','PGP可用于电子邮件，也可以用于文件存储']</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>['A.创建','B.读取','C.写入','D.修改']</t>
+          <t>['创建','读取','写入','修改']</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>['A.协议漏洞','B.对外部输入不做检查','C.缓冲区未做边界检查','D.程序系统调试不当']</t>
+          <t>['协议漏洞','对外部输入不做检查','缓冲区未做边界检查','程序系统调试不当']</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>['A.计算机病毒可以通过读写磁盘或网络等方式进行传播','B.计算机病毒只能通过软件复制的方式进行传播','C.计算机病毒只感染可执行文件','D.计算机病毒只感染文本文件']</t>
+          <t>['计算机病毒可以通过读写磁盘或网络等方式进行传播','计算机病毒只能通过软件复制的方式进行传播','计算机病毒只感染可执行文件','计算机病毒只感染文本文件']</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>['A.可说明性','B.安全政策','C.安全特征','D.安全保障']</t>
+          <t>['可说明性','安全政策','安全特征','安全保障']</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>['A.内部子网之间传送信息的中枢','B.部分内部网络与外部网络的结合合','C.内部网络与外部网络的交叉点','D.每个子网的内部']</t>
+          <t>['内部子网之间传送信息的中枢','部分内部网络与外部网络的结合合','内部网络与外部网络的交叉点','每个子网的内部']</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>['A.发送信息的不可否认性','B.数据存储的唯一性','C.信息的保密性','D.数据交换的完整性']</t>
+          <t>['发送信息的不可否认性','数据存储的唯一性','信息的保密性','数据交换的完整性']</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>['A.计算机病毒只具有传染性，不具有破坏性','B.计算机病毒具有破坏性，不具有传染性','C.计算机病毒只具有破坏性，没有其他特征','D.破坏性和传染性是计算机病毒的两大主要特征']</t>
+          <t>['计算机病毒只具有传染性，不具有破坏性','计算机病毒具有破坏性，不具有传染性','计算机病毒只具有破坏性，没有其他特征','破坏性和传染性是计算机病毒的两大主要特征']</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>['A.各种网上欺骗行为','B.使网络阻塞','C.Windows“控制面板”中，无“本地连接”图标','D.破坏计算机的程序或数据']</t>
+          <t>['各种网上欺骗行为','使网络阻塞','Windows“控制面板”中，无“本地连接”图标','破坏计算机的程序或数据']</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>['A.防火墙是一种主动安全策略执行设备','B.防火墙能够抵御一切网络攻击','C.防火墙如果配置不当，会导致更大的安全风险','D.防火墙本身不需要提供防护']</t>
+          <t>['防火墙是一种主动安全策略执行设备','防火墙能够抵御一切网络攻击','防火墙如果配置不当，会导致更大的安全风险','防火墙本身不需要提供防护']</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>['A.OK','B.Anonymous','C.guest','D.Admin']</t>
+          <t>['OK','Anonymous','guest','Admin']</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>['A.破坏数据完整性','B.拒绝服务攻击','C.信息泄露','D.非授权访问']</t>
+          <t>['破坏数据完整性','拒绝服务攻击','信息泄露','非授权访问']</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>['A.机密性','B.可控性','C.完整性','D.可用性']</t>
+          <t>['机密性','可控性','完整性','可用性']</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>['A.易于管理','B.开放性','C.可伸缩性','D.安全体系']</t>
+          <t>['易于管理','开放性','可伸缩性','安全体系']</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>['A.Macro.Melissa','B.Win32.CIH','C.worm.Sasser.f','D.Trojan.qq3344']</t>
+          <t>['Macro.Melissa','Win32.CIH','worm.Sasser.f','Trojan.qq3344']</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>['A.目录级安全控制','B.网络的权限控制','C.属性安全控制','D.网络服务安全控制']</t>
+          <t>['目录级安全控制','网络的权限控制','属性安全控制','网络服务安全控制']</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>['A.MAC攻击','B.DDoS攻击','C.上网冲浪','D.中间人攻击']</t>
+          <t>['MAC攻击','DDoS攻击','上网冲浪','中间人攻击']</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>['A.远程登录','B.网络嗅探','C.破解密码','D.用户欺骗']</t>
+          <t>['远程登录','网络嗅探','破解密码','用户欺骗']</t>
         </is>
       </c>
     </row>
